--- a/实验数据/冰水混合/02/pdata.xlsx
+++ b/实验数据/冰水混合/02/pdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\实验室\2024工作\毕业论文-冰水混合测量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\实验室\2024工作\毕业论文-表面介质识别\multispectral-recognition\实验数据\冰水混合\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF63819-D0B5-457E-9488-1C44A0699982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DDECB-ABD4-4F26-89C2-3AB9A4ECB5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="C1:C1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
